--- a/ULTIMATE Task List.xlsx
+++ b/ULTIMATE Task List.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\YAM\Coding Acadamy\Sprint2\Ultimate-Meme-Creator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="396" yWindow="552" windowWidth="19812" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Section</t>
   </si>
@@ -127,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -187,6 +192,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -234,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,16 +492,16 @@
   <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -523,9 +531,11 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -538,9 +548,11 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -553,9 +565,11 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -572,7 +586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -587,7 +601,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -600,9 +614,11 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -616,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -630,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -644,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -658,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -672,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -686,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -697,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -708,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -719,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -730,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -741,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
@@ -749,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
@@ -757,7 +773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
@@ -765,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
@@ -773,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
@@ -784,7 +800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
@@ -792,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -803,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>34</v>
       </c>

--- a/ULTIMATE Task List.xlsx
+++ b/ULTIMATE Task List.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\YAM\Coding Acadamy\Sprint2\Ultimate-Meme-Creator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="552" windowWidth="19812" windowHeight="7368"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Section</t>
   </si>
@@ -132,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -242,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,17 +486,17 @@
   </sheetPr>
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -535,7 +530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -552,7 +547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -569,7 +564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -586,7 +581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -599,9 +594,11 @@
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -618,7 +615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -631,8 +628,11 @@
       <c r="D9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -659,8 +659,11 @@
       <c r="D11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -673,8 +676,11 @@
       <c r="D12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -688,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -702,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -713,7 +719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -724,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -735,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -746,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -757,7 +763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
@@ -765,7 +771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
@@ -773,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
@@ -781,7 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
@@ -789,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
@@ -800,7 +806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
@@ -808,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -819,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>34</v>
       </c>

--- a/ULTIMATE Task List.xlsx
+++ b/ULTIMATE Task List.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\YAM\Coding Acadamy\Sprint2\Ultimate-Meme-Creator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="396" yWindow="552" windowWidth="19812" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Section</t>
   </si>
@@ -127,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -237,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,16 +492,16 @@
   <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -530,7 +535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -547,7 +552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -564,7 +569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -581,7 +586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -598,7 +603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -615,7 +620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -632,7 +637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -645,8 +650,11 @@
       <c r="D10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -663,7 +671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -680,7 +688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -693,8 +701,11 @@
       <c r="D13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -707,8 +718,11 @@
       <c r="D14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -718,8 +732,14 @@
       <c r="C15" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -729,8 +749,11 @@
       <c r="C16" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -740,8 +763,11 @@
       <c r="C17" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -751,8 +777,11 @@
       <c r="C18" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -763,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
@@ -771,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
@@ -779,34 +808,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
       </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
@@ -814,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -825,12 +860,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="4">
         <v>5</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
